--- a/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
+++ b/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62F83CD-A9EC-43D9-82F3-5859B7506D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3C65FD-7905-4389-BFED-E870AE4B8153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="5265" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="30210" yWindow="2355" windowWidth="25335" windowHeight="12915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,91 +71,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最差品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.ETestQuality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.ETestCurrency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_rows=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最差品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.ETestQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.ETestCurrency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,149 +530,147 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
+++ b/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3C65FD-7905-4389-BFED-E870AE4B8153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AD617A-5D90-48BA-A20D-ACF8A02948DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="2355" windowWidth="25335" windowHeight="12915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="30120" yWindow="2910" windowWidth="25335" windowHeight="12915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIAMOND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,14 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最差品质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,14 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>full_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test.ETestCurrency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全名(包含模块和名字)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +120,70 @@
   </si>
   <si>
     <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为标志类（即每个枚举项为标记，填数据时可以为A|B这样)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举项是否唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.AccessFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUNCATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ_WRITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRITE|READ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,9 +230,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,164 +551,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
+++ b/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AD617A-5D90-48BA-A20D-ACF8A02948DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754C5FDD-6F0F-4F01-A6D0-505CF98C6A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30120" yWindow="2910" windowWidth="25335" windowHeight="12915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="30570" yWindow="1875" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>##+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test.AccessFlag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,6 +180,10 @@
   </si>
   <si>
     <t>WRITE|READ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +554,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,7 +597,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11">
         <v>8</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
         <v>38</v>
-      </c>
-      <c r="I12" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
+++ b/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754C5FDD-6F0F-4F01-A6D0-505CF98C6A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66199695-FCEC-4035-AA94-49E07B4DF001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30570" yWindow="1875" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否为标志类（即每个枚举项为标记，填数据时可以为A|B这样)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>枚举项是否唯一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,6 +180,10 @@
   </si>
   <si>
     <t>##var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为标志类（即每个枚举项为位标记，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +554,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,7 +588,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -597,7 +597,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -623,10 +623,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11">
         <v>8</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
         <v>37</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
+++ b/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66199695-FCEC-4035-AA94-49E07B4DF001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD8894F-029A-4140-BBA8-F8C59CD1DD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30570" yWindow="1875" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="3120" yWindow="1875" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,7 +570,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
